--- a/assets/dataFiles/Tour Packages.xlsx
+++ b/assets/dataFiles/Tour Packages.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bongu\Documents\slidertest\excelfetch\1. OUR TARIFFS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bongu\Documents\TourNest-master\assets\dataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A1DFCC7-123C-4128-B43E-285490F4E175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C1D62C-9EBA-4EBD-9F0D-28AF8CF8A7DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{E25AFADE-E949-4844-8DF2-76E0E6029CC0}"/>
   </bookViews>
@@ -135,19 +135,28 @@
 PARKING EXRA</t>
   </si>
   <si>
-    <t>Attraction: Black thunder, Kattary Park, Law falls.</t>
-  </si>
-  <si>
-    <t>Attraction: Mysore Palace, Brindavan Gardens, Chamundi Hills, Mysore Zoo, Lalita Mahal Palace, Rail Museum, Sri Ranganatha Swamy Temple, Datta Peetham, Karanji Lake Nature Park, Tipu Sultan's Palace</t>
-  </si>
-  <si>
-    <t>Attraction: Botanical Garden, Boathouse, Thread Garden, Century Rose Garden, Dodabetta Peak, Tea Factory, Pine Forest, 6th Mile (shooting spot), Kamarajar Sagar Dam, 9th Mile (shooting spot), Trible Village, Golf Course (outer view), Pykara falls, Pykara lake &amp; boating, Pykara Dam (outer view)</t>
-  </si>
-  <si>
-    <t>Attraction: Dodabetta Peak, Tea Factory&amp; Musium, Wax Musium, Chocolate Factory, Botanical Garden, Boathouse, Thread Garden,Ketty valleyview( view), MRC (outer view), Dolphin Nose, Lamb's Rock, Sim's Park,Tea Garden, Nilgiri Mountain Toy Train.</t>
-  </si>
-  <si>
     <t>Tour Packages</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;
+&lt;h5&gt;Attraction&lt;/h5&gt;
+&lt;p&gt;Mysore Palace, Brindavan Gardens, Chamundi Hills, Mysore Zoo, Lalita Mahal Palace, Rail Museum, Sri Ranganatha Swamy Temple, Datta Peetham, Karanji Lake Nature Park, Tipu Sultan's Palace&lt;/p&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;&lt;h5&gt;Attraction&lt;/h5&gt;&lt;p&gt;Black thunder, Kattary Park, Law falls&lt;/p&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;
+&lt;h5&gt;Attraction&lt;/h5&gt;
+&lt;p&gt;Botanical Garden, Boathouse, Thread Garden, Century Rose Garden, Dodabetta Peak, Tea Factory, Pine Forest, 6th Mile (shooting spot), Kamarajar Sagar Dam, 9th Mile (shooting spot), Trible Village, Golf Course (outer view), Pykara falls, Pykara lake &amp; boating, Pykara Dam (outer view)&lt;/p&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;div&gt;
+&lt;h5&gt;Attraction&lt;/h5&gt;
+&lt;p&gt;Dodabetta Peak, Tea Factory&amp; Musium, Wax Musium, Chocolate Factory, Botanical Garden, Boathouse, Thread Garden,Ketty valleyview( view), MRC (outer view), Dolphin Nose, Lamb's Rock, Sim's Park,Tea Garden, Nilgiri Mountain Toy Train&lt;/p&gt;
+&lt;/div&gt;</t>
   </si>
 </sst>
 </file>
@@ -729,7 +738,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -763,7 +772,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="A2" sqref="A2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1071,7 +1080,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1096,7 +1105,7 @@
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -1378,7 +1387,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1403,7 +1412,7 @@
     </row>
     <row r="2" spans="1:6" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -1735,7 +1744,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="A2" sqref="A2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1760,7 +1769,7 @@
     </row>
     <row r="2" spans="1:6" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
